--- a/我的家/装修/面积数据.xlsx
+++ b/我的家/装修/面积数据.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KENNY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的家\装修\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="4665" tabRatio="602" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="4665" tabRatio="602" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="地面数据" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="顶面" sheetId="5" r:id="rId5"/>
     <sheet name="家具" sheetId="6" r:id="rId6"/>
     <sheet name="油漆" sheetId="8" r:id="rId7"/>
+    <sheet name="拉手" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="226">
   <si>
     <t>厨房</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -842,6 +843,70 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐边柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63.89m2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景观阳台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母房1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母房2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个卧室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1193,8 +1258,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1549,7 +1614,7 @@
         <v>28</v>
       </c>
       <c r="D30">
-        <v>835</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.15">
@@ -1583,7 +1648,7 @@
       </c>
       <c r="D34" s="1">
         <f>SUM(D25:D33)</f>
-        <v>9870</v>
+        <v>10195</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -1634,15 +1699,15 @@
         <v>36</v>
       </c>
       <c r="D41">
-        <f>(2280+600+600+865+300)*2</f>
-        <v>9290</v>
+        <f>(2280+600+600+865+300)*2-1200-800</f>
+        <v>7290</v>
       </c>
       <c r="E41">
         <v>300</v>
       </c>
       <c r="F41">
         <f>ROUND(D41/1000*E41/1000,2)</f>
-        <v>2.79</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -1651,7 +1716,7 @@
       </c>
       <c r="F42">
         <f>F40+F41</f>
-        <v>7.87</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -2276,6 +2341,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3107,10 +3173,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3118,7 +3184,7 @@
     <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>11</v>
       </c>
@@ -3128,8 +3194,15 @@
       <c r="E1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1">
+        <f>F5+F12+F18+F23+F26+F32</f>
+        <v>23.155450000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3140,7 +3213,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>31</v>
       </c>
@@ -3156,7 +3229,7 @@
         <v>3.6039000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -3171,7 +3244,7 @@
         <v>1.6973999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>19</v>
       </c>
@@ -3180,7 +3253,7 @@
         <v>5.3013000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3191,7 +3264,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>95</v>
       </c>
@@ -3206,7 +3279,7 @@
         <v>4.1124000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>204</v>
       </c>
@@ -3221,7 +3294,7 @@
         <v>0.31740000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>209</v>
       </c>
@@ -3237,7 +3310,7 @@
         <v>2.6771999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>19</v>
       </c>
@@ -3250,7 +3323,7 @@
         <v>7.1070000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3261,7 +3334,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>95</v>
       </c>
@@ -3361,15 +3434,14 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D26">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="E26">
-        <f>2760-510</f>
-        <v>2250</v>
+        <v>2300</v>
       </c>
       <c r="F26">
         <f>(D26/1000)*(E26/1000)</f>
-        <v>3.15</v>
+        <v>3.6799999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -3628,10 +3700,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3884,6 +3956,138 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>218</v>
+      </c>
+      <c r="D35">
+        <v>6895</v>
+      </c>
+      <c r="E35">
+        <f>700+2090+800</f>
+        <v>3590</v>
+      </c>
+      <c r="F35">
+        <f>(D35/1000)*(E35/1000)</f>
+        <v>24.753049999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D36">
+        <v>990</v>
+      </c>
+      <c r="E36">
+        <v>3090</v>
+      </c>
+      <c r="F36">
+        <f>(D36/1000)*(E36/1000)</f>
+        <v>3.0590999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37">
+        <f>2075+880+330</f>
+        <v>3285</v>
+      </c>
+      <c r="E37">
+        <f>1150+220</f>
+        <v>1370</v>
+      </c>
+      <c r="F37">
+        <f>(D37/1000)*(E37/1000)</f>
+        <v>4.5004500000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38">
+        <f>2075+880+120</f>
+        <v>3075</v>
+      </c>
+      <c r="E38">
+        <v>2210</v>
+      </c>
+      <c r="F38">
+        <f>(D38/1000)*(E38/1000)</f>
+        <v>6.79575</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>222</v>
+      </c>
+      <c r="D39">
+        <f>3840</f>
+        <v>3840</v>
+      </c>
+      <c r="E39">
+        <v>1200</v>
+      </c>
+      <c r="F39">
+        <f>(D39/1000)*(E39/1000)</f>
+        <v>4.6079999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>223</v>
+      </c>
+      <c r="D40">
+        <f>1765+215+1705</f>
+        <v>3685</v>
+      </c>
+      <c r="E40">
+        <f>3970+525</f>
+        <v>4495</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41">
+        <f>2075+210+1090+130+3360</f>
+        <v>6865</v>
+      </c>
+      <c r="E41">
+        <v>3100</v>
+      </c>
+      <c r="F41">
+        <f>(D41/1000)*(E41/1000)</f>
+        <v>21.281500000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E42" t="s">
+        <v>225</v>
+      </c>
+      <c r="F42">
+        <f>SUM(F35:F41)</f>
+        <v>64.99785</v>
       </c>
     </row>
   </sheetData>
@@ -5376,4 +5580,103 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2">
+        <f>5+4+3+1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3">
+        <f>6+6</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <f>4+4</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <f>2+2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <f>4+4</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8">
+        <f>2+2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <f>SUM(B2:B8)</f>
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>